--- a/data/table_information.xlsx
+++ b/data/table_information.xlsx
@@ -889,7 +889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1011,6 +1011,80 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>testTable</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>testTable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/table_information.xlsx
+++ b/data/table_information.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="system" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test_db" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="shijie" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1088,4 +1089,167 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>column_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>primary_key</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>foreign_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ceshi1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ceshi1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ceshi1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/table_information.xlsx
+++ b/data/table_information.xlsx
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1049,43 +1049,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>testTable</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>v2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1222,7 +1186,6 @@
           <t>ceshi1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>mode</t>

--- a/data/table_information.xlsx
+++ b/data/table_information.xlsx
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1049,7 +1049,43 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>testTable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>char[10]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
